--- a/myapp/files/80_distances/pValue_fisher_RISKS.xlsx
+++ b/myapp/files/80_distances/pValue_fisher_RISKS.xlsx
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0000000000616180878438046</v>
+        <v>0.0338059076460688</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00000000000000000000000000173967000124029</v>
+        <v>0.0136265452499987</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00000000000015513604324572</v>
+        <v>0.0766946625166712</v>
       </c>
     </row>
     <row r="11">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.000000000000000000000000000000000000000000610070208436492</v>
+        <v>0.000236395565688206</v>
       </c>
     </row>
     <row r="12">
@@ -584,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0727385992687627</v>
+        <v>0.562329033749289</v>
       </c>
     </row>
     <row r="15">
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.838716807756647</v>
       </c>
     </row>
     <row r="16">
@@ -600,7 +600,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.00120949938757851</v>
       </c>
     </row>
     <row r="17">
@@ -608,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.0000467153344578317</v>
       </c>
     </row>
     <row r="18">
@@ -616,7 +616,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.00000746375027186135</v>
       </c>
     </row>
     <row r="19">
@@ -624,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.00000266369472347402</v>
       </c>
     </row>
     <row r="20">
@@ -640,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.943485245443743</v>
       </c>
     </row>
     <row r="22">
@@ -664,7 +664,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.000000000000000000000000000000000000000000111660816478503</v>
+        <v>0.00873064105282898</v>
       </c>
     </row>
     <row r="25">
@@ -672,7 +672,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00000000000000000000000000000000317134344270379</v>
+        <v>0.0243413497420236</v>
       </c>
     </row>
     <row r="26">
@@ -680,7 +680,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000552597083069758</v>
+        <v>0.00152107514939404</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0000000000000000000000000000000000273604612508983</v>
+        <v>0.0199030672073737</v>
       </c>
     </row>
     <row r="28">
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.999999999999977</v>
+        <v>0.898833552419575</v>
       </c>
     </row>
     <row r="29">
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.873552766105114</v>
       </c>
     </row>
     <row r="30">
@@ -728,7 +728,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.999993140020064</v>
+        <v>0.975019280827087</v>
       </c>
     </row>
     <row r="33">
@@ -736,7 +736,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.999999999999999</v>
+        <v>0.948603181166763</v>
       </c>
     </row>
     <row r="34">
@@ -744,7 +744,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.00266867974711343</v>
       </c>
     </row>
     <row r="35">
@@ -752,7 +752,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.0000287692239302207</v>
       </c>
     </row>
     <row r="36">
@@ -784,7 +784,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.00000389823045926507</v>
       </c>
     </row>
     <row r="40">
